--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio Projects\gitrepos\JodyApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABC3B384-8255-486F-BB48-0676E0516815}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59FBB078-A894-4ABA-9D73-BADCB702E4E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="7980" xr2:uid="{BC12055F-556E-4BE5-B17B-8E051D5ED68F}"/>
   </bookViews>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D2EC2D-A0CD-4282-92A5-95A1FA1D21CD}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
